--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/54_Kütahya_2025.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/54_Kütahya_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE7F8D58-A4B6-44D9-9C64-A0FF12223B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9265BCEE-42BF-4ED4-B0FA-19F4CB6B2FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="680" xr2:uid="{F9741176-2D7B-43D7-BE70-095AAC2FF2AA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="680" xr2:uid="{AFB2C0F9-97DA-402B-8E5E-C796366469DF}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZİRAN" sheetId="140" r:id="rId1"/>
@@ -810,13 +810,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{AD0D82D0-0AD0-4A0B-B90F-EDDBD45AC252}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{7C691A6E-0C8A-40F1-BE7D-4319C97146A6}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{45DEC73A-FA9F-44DC-8077-3B6617CCEA63}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{D51EC08D-67B1-427D-9E89-B321003EE5E0}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{6413CA42-5083-448D-9599-02C6DFB217E2}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{2491BDD1-9CB1-481A-82FF-4BB3EB30A395}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{D7DCEFE6-5B7B-41EE-B764-63CBCC64588D}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{80138302-3A3F-45B8-BD0B-C65321847241}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{7F2C291F-98A6-41B1-8987-42CFC8166C84}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{7F325751-31DD-4AC1-B34D-B4C35B0970F3}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{83C508B4-69B8-49DC-A4F3-34B432368734}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{D9CB49DD-7107-403C-9C64-775045250BDB}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{019140FC-FF7B-4785-B59D-4B9D9B39CEED}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{35170362-73D5-436E-A345-25CE51618E18}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1186,7 +1186,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA344642-2425-4F2A-8852-F1DB8CAA9539}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB355B5-B700-4F6D-B05F-54BDA273E9B2}">
   <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2476,7 +2476,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978D5523-F6A5-492B-81CC-B3BDE886CAAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F12A3E-80D6-4244-9402-8C5944EC9F87}">
   <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3754,7 +3754,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D4321C-8D1A-4749-BD59-C307182F9F5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64258B83-7C0A-4194-976F-CF653C87976F}">
   <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5022,7 +5022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19844B6-D342-448E-A2DC-94ECE301DF7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5C9BEB7-5EFC-4AEE-AB2F-9E6F5A52C791}">
   <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6298,7 +6298,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB7D8C71-2118-4006-9EAA-E94BC406830B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C8FB276-F3C3-456E-A44E-FB6A2F2B6F11}">
   <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7562,7 +7562,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{961976D9-4518-445C-A739-8CE51B11C81C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921634A8-4BC1-4299-97A8-5A56ED149DAD}">
   <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
